--- a/medicine/Enfance/Carolyn_Hart/Carolyn_Hart.xlsx
+++ b/medicine/Enfance/Carolyn_Hart/Carolyn_Hart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carolyn Hart, née Gimpel le 25 août 1936 à Oklahoma City dans l'Oklahoma, est une écrivain américaine, auteure de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle décroche un diplôme en journalisme de l'Université de l'Oklahoma en 1958. Elle exerce ensuite le métier de journaliste jusqu'en 1986, date à laquelle elle décide de se consacrer entièrement à l'écriture de romans policiers humoristiques et d'ouvrages de littérature d'enfance et de jeunesse.
 Elle crée deux héroïnes d'enquêtes policières : Annie Laurence, une jeune libraire spécialisée dans la fiction policière, dont la boutique, décorée de tasses è l'effigie des grands auteurs du genre, à pignon sur rue sur une île au large des côtes de la Caroline du Sud, et Henrie O, surnom de Henrietta O'Dwyer, une veuve d'une soixantaine d'années et ancienne journaliste, qui partage occasionnellement sa vie avec un auteur de littérature policière. Elle a également créé en 2008 le personnage du fantôme enquêteur Bailey Ruth Raeburn.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Annie Laurence (Death on Demand)
-Death on Demand (1987) Publié en français sous le titre Meurtre en librairie, traduit par Gérard de Chergé, Paris, Éditions Liana Levi, coll. « À corps et à crime », 1996, 301 p.  (ISBN 2-86746-141-3), réédition, Paris, L.Levi, « Piccolo » no 25, 2004
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Annie Laurence (Death on Demand)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Death on Demand (1987) Publié en français sous le titre Meurtre en librairie, traduit par Gérard de Chergé, Paris, Éditions Liana Levi, coll. « À corps et à crime », 1996, 301 p.  (ISBN 2-86746-141-3), réédition, Paris, L.Levi, « Piccolo » no 25, 2004
 Design for Murder (1988)
 Something Wicked (1988)
 Honeymoon with Murder (1988) Publié en français sous le titre La libraire mène l'enquête, traduit par Aline Sainton, Paris, Éditions Liana Levi, coll. « À corps et à crime », 1996, 317 p.  (ISBN 2-86746-159-6), réédition, Paris, L.Levi, « Piccolo » no 35, 2005
@@ -572,17 +594,93 @@
 Dead by Midnight (2011)
 Death Comes Silently (2012)
 Dead, White and Blue (2013)
-Dead at the Door (2014)
-Série Henrie O
-Dead Man's Island (1993)
+Dead at the Door (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Henrie O</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dead Man's Island (1993)
 Scandal in Fair Haven (1994)
 Death in Lovers' Lane (1997)
 Death in Paradise (1998)
 Death on the River Walk (1999)
 Resort to Murder (2001)
-Set Sail for Murder (2007)
-Série Bailey Ruth Raeburn
-Ghost at Work (2008)
+Set Sail for Murder (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Bailey Ruth Raeburn</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ghost at Work (2008)
 Merry, Merry Ghost (2009)
 Ghost In Trouble (2010)
 Ghost Gone Wild (2013)
@@ -591,9 +689,43 @@
 Ghost Times Two (2016)
 Ghost on the Case (2017)
 Ghost Ups Her Game (2020)
-Ghost Blows a Kiss (2021)
-Autres romans
-The Secret in the Cellar (1964)
+Ghost Blows a Kiss (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Secret in the Cellar (1964)
 Dangerous Summer (1968)
 No Easy Answers (1970)
 Rendezvous in Veracruz (1972)
@@ -611,12 +743,80 @@
 Letter from Home (2003)
 The Sunken Sailor (2004), roman en collaboration avec une dizaine d'auteurs, dont Simon Brett et Dorothy Cannell
 What the Cat Saw (2012)
-Cry in the Night (2012)
-Recueil de nouvelles
-Crime on Her Mind (1999)
-Secrets and Other Stories of Suspense (2008)
-Autres publications
-The Sooner Story, 1890-1980 (1980), en collaboration avec Charles F. Long
+Cry in the Night (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Crime on Her Mind (1999)
+Secrets and Other Stories of Suspense (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Sooner Story, 1890-1980 (1980), en collaboration avec Charles F. Long
 Crimes of the Heart (1995), anthologie éditée par C. Hart
 Love &amp; Death (2001), anthologie éditée par C. Hart
 Much Depends on Dinner: a Year in the Telegrah Kitchen (2008)
@@ -624,31 +824,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Carolyn_Hart</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carolyn_Hart</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1996 : Dead Man's Island, téléfilm américain de Peter Roger Hunt, d'après le roman éponyme, avec Barbara Eden et William Shatner</t>
         </is>
